--- a/data/trans_bre/P71_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-5.721027724433797</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.090993411590539</v>
+        <v>2.090993411590537</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3997870687871228</v>
@@ -649,7 +649,7 @@
         <v>-0.1542135464607842</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2794833769798519</v>
+        <v>0.2794833769798516</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.569411601598883</v>
+        <v>-1.834392489221764</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.652023988629351</v>
+        <v>-8.605978861343765</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.38880454288764</v>
+        <v>-14.19942319562412</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.062172536159066</v>
+        <v>-2.083465337885566</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1454223122306841</v>
+        <v>-0.1620918582133406</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2006067587534435</v>
+        <v>-0.2028228798208728</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3431837044976985</v>
+        <v>-0.3393077983932162</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2367678318877046</v>
+        <v>-0.2298544040532771</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.03055964809534</v>
+        <v>10.62783729937966</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.594977678803266</v>
+        <v>9.537076199180209</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.526757479170379</v>
+        <v>2.181525422488062</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.844904930637011</v>
+        <v>6.3447853349374</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.170191551991316</v>
+        <v>1.303247813545516</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2458886820794264</v>
+        <v>0.270430723718643</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07217592699490022</v>
+        <v>0.06963525358864305</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.331513450217112</v>
+        <v>1.11396194715744</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.602036560132059</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.133021115427446</v>
+        <v>1.133021115427443</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.426061808301418</v>
@@ -749,7 +749,7 @@
         <v>0.03975774294815888</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.08819960304698483</v>
+        <v>0.0881996030469846</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.933573731404267</v>
+        <v>4.457129270969233</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.718793864619828</v>
+        <v>-4.12667574904938</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.382926416115788</v>
+        <v>-4.975634395504341</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.960059183739699</v>
+        <v>-3.991068290203574</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1767379972355416</v>
+        <v>0.1629958628235774</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.06571035642661492</v>
+        <v>-0.07268182407011675</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.09819960610327459</v>
+        <v>-0.1136301571449663</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2416533502143219</v>
+        <v>-0.2531232898674215</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.45865631807084</v>
+        <v>16.45218350911421</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.72609143447707</v>
+        <v>9.214136494963556</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.963300732114112</v>
+        <v>7.733123430449504</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.576996774478096</v>
+        <v>5.107617089265994</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7572428339861538</v>
+        <v>0.7589553482909307</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1928680158117386</v>
+        <v>0.1858798634298347</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2203723620436585</v>
+        <v>0.2091686740089291</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5613837785101047</v>
+        <v>0.5053313928332941</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.926519277660708</v>
+        <v>3.467028205348899</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.351411983367539</v>
+        <v>-7.018982169048198</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.018965019074245</v>
+        <v>1.417199708509151</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.33048139459263</v>
+        <v>-2.17536920291609</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1321198971378333</v>
+        <v>0.1676927083892715</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3843791558599869</v>
+        <v>-0.3783108348398912</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03814615147721484</v>
+        <v>0.05223050071360512</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.07354223351245245</v>
+        <v>-0.1136071639046823</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.18838732300041</v>
+        <v>16.28730325202584</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.885026951055871</v>
+        <v>4.449918253115925</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.13770322846523</v>
+        <v>15.26410720773039</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.781995027306561</v>
+        <v>9.154330079300925</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.204758898447083</v>
+        <v>1.30125309917174</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2894233817504008</v>
+        <v>0.3555569608375123</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7476935646585937</v>
+        <v>0.7308488874762034</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7613819900652549</v>
+        <v>0.6685223019048963</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>8.414794590808567</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.73646260711662</v>
+        <v>6.736462607116614</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9139093234326232</v>
@@ -949,7 +949,7 @@
         <v>0.2773625855176418</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4907882366858686</v>
+        <v>0.4907882366858682</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.479568223088297</v>
+        <v>5.718660608698252</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.379756235265961</v>
+        <v>-6.01009455953647</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7577059553232985</v>
+        <v>1.037503121111877</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.4009017877998686</v>
+        <v>-0.1121184442737677</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3749392605439767</v>
+        <v>0.3687279375681856</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2252669340165784</v>
+        <v>-0.2122427099023173</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01976218927266477</v>
+        <v>0.0305710606698225</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0315588767128711</v>
+        <v>-0.02236624616374474</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.302822710951</v>
+        <v>16.7342719307075</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.615336733557657</v>
+        <v>6.716968298185182</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.21842012702178</v>
+        <v>15.33204919114015</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.74576067194922</v>
+        <v>12.96415767365166</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.784812534573302</v>
+        <v>1.761789395492846</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2906753537444811</v>
+        <v>0.3098301183712558</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.560791155522906</v>
+        <v>0.5790488171491195</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.315212446499305</v>
+        <v>1.302251168181874</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.614230994482947</v>
+        <v>-1.526231225298103</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.015491245911478</v>
+        <v>-7.215947060045938</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.046450817420515</v>
+        <v>-3.864184874033906</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.057226524310148</v>
+        <v>-4.794291539019897</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.09170269939965071</v>
+        <v>-0.1037822988259632</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1848332975914369</v>
+        <v>-0.1905450879166163</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.06029872448265777</v>
+        <v>-0.06172901227819468</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4896791041349567</v>
+        <v>-0.4681638499855418</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.38586354706173</v>
+        <v>14.60497146291367</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.28339412786488</v>
+        <v>10.97200328529157</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.08548950343335</v>
+        <v>13.72200017400232</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.929516842716947</v>
+        <v>3.673262172528107</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.168345445867869</v>
+        <v>1.240523769975415</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3937977246760111</v>
+        <v>0.3790494506537195</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2704989006872238</v>
+        <v>0.2449198907445712</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8362929638345995</v>
+        <v>0.7773275262310692</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-0.06394091967226179</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.498837928900027</v>
+        <v>2.49883792890003</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5726229171749383</v>
@@ -1149,7 +1149,7 @@
         <v>-0.003463507451372244</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1843807566017015</v>
+        <v>0.1843807566017018</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.259486848973826</v>
+        <v>5.237430182946071</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-7.71361917341211</v>
+        <v>-7.30726073000956</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-7.589816472794038</v>
+        <v>-7.540328009286021</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.148188645968014</v>
+        <v>-3.154824589521039</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1754429363647934</v>
+        <v>0.1976938399520062</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3909698072467453</v>
+        <v>-0.3860691243327966</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3433110940839071</v>
+        <v>-0.3302898456604016</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1365554152046256</v>
+        <v>-0.1980798256363994</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>19.00725255730977</v>
+        <v>19.48599769504737</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.985734689172447</v>
+        <v>4.837492422100413</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.83927986489002</v>
+        <v>6.862311062106019</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.712403944729401</v>
+        <v>7.750648772959974</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.128637801911045</v>
+        <v>1.177646586767186</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3890968277657157</v>
+        <v>0.361491236310079</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4531753838194679</v>
+        <v>0.4632429264512839</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6991406746425082</v>
+        <v>0.720673382793439</v>
       </c>
     </row>
     <row r="22">
@@ -1249,7 +1249,7 @@
         <v>0.08997598320024029</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2126574491536126</v>
+        <v>0.2126574491536127</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>9.360964084978294</v>
+        <v>9.631504602103917</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.625795061768645</v>
+        <v>-2.257367513929187</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.305996088618517</v>
+        <v>-2.700216579327868</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.285927789327083</v>
+        <v>-1.083898804535045</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4021130921354389</v>
+        <v>0.4272424063801761</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1143590174372126</v>
+        <v>-0.09008228896153252</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.07037517307709298</v>
+        <v>-0.07774655482768733</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.08374854951097445</v>
+        <v>-0.07241770515475461</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.62309614257507</v>
+        <v>19.44312107715328</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.7823343956507</v>
+        <v>7.228970811102996</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.822517132681019</v>
+        <v>7.640807537035825</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.815972588289845</v>
+        <v>6.245401933564958</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.077365434181073</v>
+        <v>1.09187283479837</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3515943290938098</v>
+        <v>0.3755094051977224</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2870947337242578</v>
+        <v>0.2787806129472385</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5808568019132324</v>
+        <v>0.6297808495199487</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-0.2817745481403289</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1.629190203697564</v>
+        <v>1.629190203697567</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3803434988583678</v>
@@ -1349,7 +1349,7 @@
         <v>-0.008519600281984806</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.07560843110980273</v>
+        <v>0.07560843110980285</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.778167837760198</v>
+        <v>2.868415371605167</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-3.711048694176282</v>
+        <v>-3.386351118435887</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-4.866885402472409</v>
+        <v>-4.854540650718738</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-2.434057191680172</v>
+        <v>-2.657713050087746</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1413729731300661</v>
+        <v>0.137363478926619</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1086097383340311</v>
+        <v>-0.09266542796817837</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1436978790200592</v>
+        <v>-0.1371959273129217</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1018232517647258</v>
+        <v>-0.11268369816521</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>11.05076218084145</v>
+        <v>11.10442774360922</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.201657184199822</v>
+        <v>6.205599492785487</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.783821349817805</v>
+        <v>4.712165864486568</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.647286647783658</v>
+        <v>5.968170130128677</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.671442531820722</v>
+        <v>0.678171640705593</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1981141581638678</v>
+        <v>0.202209231567319</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1547875671571192</v>
+        <v>0.1555844592258183</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3114440739509138</v>
+        <v>0.3186869088732252</v>
       </c>
     </row>
     <row r="28">
@@ -1449,7 +1449,7 @@
         <v>0.06613137141171703</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.1772261793835979</v>
+        <v>0.177226179383598</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>7.658270147688167</v>
+        <v>7.684382716259795</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.218875529803652</v>
+        <v>-1.292967116135823</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.02391273112406396</v>
+        <v>-0.3261652370923291</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.710933553658449</v>
+        <v>0.8135540443575685</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4001131571220857</v>
+        <v>0.3977147870549863</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.03870801608990657</v>
+        <v>-0.04067759254359084</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.0006768718254550332</v>
+        <v>-0.009888458119441132</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.04086100387783726</v>
+        <v>0.05409794352210361</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.81764707740943</v>
+        <v>11.7183776674332</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.123786408823855</v>
+        <v>3.304406262920182</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.585238471692598</v>
+        <v>4.471856321329804</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.220345012012261</v>
+        <v>4.273471390601551</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.6882042291250831</v>
+        <v>0.6816929228650506</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1057061373469999</v>
+        <v>0.1103208613115892</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.142961997443364</v>
+        <v>0.1357796725191694</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.3155294296187593</v>
+        <v>0.3252148457491223</v>
       </c>
     </row>
     <row r="31">
